--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -7,21 +7,393 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="java教程" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="环境安装" sheetId="2" r:id="rId1"/>
+    <sheet name="idea快捷键" sheetId="1" r:id="rId2"/>
+    <sheet name="报错集" sheetId="3" r:id="rId3"/>
+    <sheet name="基础学习" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+  <si>
+    <t>java的开发工具（集成开发环境）</t>
+  </si>
+  <si>
+    <t>editplus、notepad++、Sublime Text、idea、eclipse</t>
+  </si>
+  <si>
+    <t>idea官网与下载</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://www.jetbrains.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Developer Tools 》选IntelliJ IDEA</t>
+    </r>
+  </si>
+  <si>
+    <t>JDK：java的开发工具包</t>
+  </si>
+  <si>
+    <t>含有jvm虚拟机，不同操作系统运行(Window,Linux,Mac)</t>
+  </si>
+  <si>
+    <t>JDK下载</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://www.oracle.com/java/technologies/javase-downloads.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选exe</t>
+    </r>
+  </si>
+  <si>
+    <t>环境变量 (用户变量和系统变量)</t>
+  </si>
+  <si>
+    <t>桌面》我的电脑》右击》属性》高级系统设置》高级》环境变量</t>
+  </si>
+  <si>
+    <t>用户变量：</t>
+  </si>
+  <si>
+    <t>JAVA_HOME</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Java\jdk-11.0.8</t>
+  </si>
+  <si>
+    <t>用户变量:</t>
+  </si>
+  <si>
+    <t>path---编辑---新建</t>
+  </si>
+  <si>
+    <t>%JAVA_HOME%\bin</t>
+  </si>
+  <si>
+    <t>检测是否安装成功
+打开终端：win + r  输入cmd</t>
+  </si>
+  <si>
+    <t>javac -version</t>
+  </si>
+  <si>
+    <t>java -version</t>
+  </si>
+  <si>
+    <t>idea新建java项目</t>
+  </si>
+  <si>
+    <t>以下安装需要才有用</t>
+  </si>
+  <si>
+    <t>Sublime Text</t>
+  </si>
+  <si>
+    <t>http://www.sublimetext.com/3</t>
+  </si>
+  <si>
+    <t>打开终端</t>
+  </si>
+  <si>
+    <t>win + r  输入cmd</t>
+  </si>
+  <si>
+    <t>编译，生成字节码文件</t>
+  </si>
+  <si>
+    <t>javac Hello.java            --- Tab命令补全</t>
+  </si>
+  <si>
+    <t>运行</t>
+  </si>
+  <si>
+    <t>java Hello</t>
+  </si>
+  <si>
+    <t>运行类</t>
+  </si>
+  <si>
+    <t>java Cat</t>
+  </si>
+  <si>
+    <t>右键---刷新</t>
+  </si>
+  <si>
+    <t>反编译</t>
+  </si>
+  <si>
+    <t>javap Hello.class</t>
+  </si>
+  <si>
+    <t>文件有中文时，如何处理？</t>
+  </si>
+  <si>
+    <t>Tool---Install Package</t>
+  </si>
+  <si>
+    <t>Preferences---Package Control---conver---保存文件</t>
+  </si>
+  <si>
+    <t>文件---设置文件编码---GBK</t>
+  </si>
+  <si>
+    <t>文件---保存</t>
+  </si>
+  <si>
+    <t>idea模板</t>
+  </si>
+  <si>
+    <t>idea模板设置</t>
+  </si>
+  <si>
+    <t>file 》 setting 》 Editor 》 Live template 》Java</t>
+  </si>
+  <si>
+    <t>自定义模板</t>
+  </si>
+  <si>
+    <t>添加+ 》填写abbreviation和template text 》Define</t>
+  </si>
+  <si>
+    <t>模板快捷键</t>
+  </si>
+  <si>
+    <t>语句</t>
+  </si>
+  <si>
+    <t>sout</t>
+  </si>
+  <si>
+    <t>System.out.println();</t>
+  </si>
+  <si>
+    <t>forin</t>
+  </si>
+  <si>
+    <t>for循环</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>main方法</t>
+  </si>
+  <si>
+    <t>自动补全</t>
+  </si>
+  <si>
+    <t>new ImageIcon(url).var</t>
+  </si>
+  <si>
+    <t>ImageIcon imageIcon = new ImageIcon(url);</t>
+  </si>
+  <si>
+    <t>代码标签div</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>req.getParameterValues().var</t>
+  </si>
+  <si>
+    <t>String[] parameterValues = req.getParameterValues();</t>
+  </si>
+  <si>
+    <t>常用快捷键</t>
+  </si>
+  <si>
+    <t>查看源码</t>
+  </si>
+  <si>
+    <t>ctrl + 鼠标左键单击</t>
+  </si>
+  <si>
+    <t>格式化代码</t>
+  </si>
+  <si>
+    <t>Ctrl+Alt+L</t>
+  </si>
+  <si>
+    <t>自动补全代码</t>
+  </si>
+  <si>
+    <t>Ctrl+Shift+Space</t>
+  </si>
+  <si>
+    <t>删除行</t>
+  </si>
+  <si>
+    <t>Ctrl+X</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>Ctrl+/ 或 Ctrl+Shift+/    （// 或者/*...*/ ）</t>
+  </si>
+  <si>
+    <t>对比最近修改的代码</t>
+  </si>
+  <si>
+    <t>Alt+Shift+C</t>
+  </si>
+  <si>
+    <t>代码提示</t>
+  </si>
+  <si>
+    <t>Ctrl+空格</t>
+  </si>
+  <si>
+    <t>查找代码所在位置</t>
+  </si>
+  <si>
+    <t>Alt+F1</t>
+  </si>
+  <si>
+    <t>自动代码</t>
+  </si>
+  <si>
+    <t>Ctrl+J</t>
+  </si>
+  <si>
+    <t>jsp或html注释</t>
+  </si>
+  <si>
+    <t>&lt;%--   000  --%&gt;</t>
+  </si>
+  <si>
+    <t>生成构造器或get set或其他</t>
+  </si>
+  <si>
+    <t>鼠标右击---Generate---Constructor---选无参和有参</t>
+  </si>
+  <si>
+    <t>找底层自动配置类</t>
+  </si>
+  <si>
+    <t>双击shift     输入WebMvcAutoConfiguration</t>
+  </si>
+  <si>
+    <t>导包</t>
+  </si>
+  <si>
+    <t>Alt+enter</t>
+  </si>
+  <si>
+    <t>必须对其进行捕获或声明以便抛出</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public static void main(String[] args)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throws Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t>IDEA中出现java file outside of source root</t>
+  </si>
+  <si>
+    <t>项目右键---Mark Directory as---Sources Root</t>
+  </si>
+  <si>
+    <t>idea 右键项目没有run 运行选项</t>
+  </si>
+  <si>
+    <t>File》Project Structure》Modules》Dependencies》Module SDK》下拉选择JDK的java版本</t>
+  </si>
+  <si>
+    <t>springboot版本太高，缺少swagger运行所需要的环境</t>
+  </si>
+  <si>
+    <t>Failed to start bean 'documentationPluginsBootstrapper'; nested exception is java.lang.NullPointerException</t>
+  </si>
   <si>
     <t>java教程</t>
   </si>
   <si>
     <t>https://www.runoob.com/java/java-tutorial.html</t>
+  </si>
+  <si>
+    <t>Java8-在线API中文手册</t>
+  </si>
+  <si>
+    <t>https://www.matools.com/api/java8</t>
   </si>
 </sst>
 </file>
@@ -29,12 +401,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,8 +423,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,50 +544,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -125,76 +559,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,31 +582,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,13 +720,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,133 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,36 +779,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,20 +797,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,10 +829,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -494,161 +844,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,29 +1411,210 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="100.777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="4" s="2" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="2:2">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A32:A35"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.runoob.com/java/java-tutorial.html"/>
+    <hyperlink ref="B7" r:id="rId1" display="https://www.oracle.com/java/technologies/javase-downloads.html&#10;选exe" tooltip="https://www.oracle.com/java/technologies/javase-downloads.html"/>
+    <hyperlink ref="B25" r:id="rId2" display="http://www.sublimetext.com/3"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.jetbrains.com&#10;选Developer Tools 》选IntelliJ IDEA" tooltip="https://www.jetbrains.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1032,14 +1625,219 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1049,16 +1847,95 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="50.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="2" customFormat="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.matools.com/api/java8"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.runoob.com/java/java-tutorial.html"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
-  <si>
-    <t>java的开发工具（集成开发环境）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+  <si>
+    <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
   <si>
     <t>editplus、notepad++、Sublime Text、idea、eclipse</t>
@@ -96,7 +96,19 @@
     </r>
   </si>
   <si>
-    <t>环境变量 (用户变量和系统变量)</t>
+    <r>
+      <t>环境变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (分为用户变量和系统变量)</t>
+    </r>
   </si>
   <si>
     <t>桌面》我的电脑》右击》属性》高级系统设置》高级》环境变量</t>
@@ -130,10 +142,10 @@
     <t>java -version</t>
   </si>
   <si>
-    <t>idea新建java项目</t>
-  </si>
-  <si>
-    <t>以下安装需要才有用</t>
+    <t>idea新建java项目---略</t>
+  </si>
+  <si>
+    <t>以下需要才用，其他代码编辑器</t>
   </si>
   <si>
     <t>Sublime Text</t>
@@ -395,15 +407,33 @@
   <si>
     <t>https://www.matools.com/api/java8</t>
   </si>
+  <si>
+    <t>JAVA - JDK 1.8 API 帮助文档-中文版</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_40147863/article/details/83051268</t>
+  </si>
+  <si>
+    <t>Java通过驱动包（jar包）连接MySQL数据库</t>
+  </si>
+  <si>
+    <t>https://downloads.mysql.com/archives/c-j/</t>
+  </si>
+  <si>
+    <t>新建libs文件夹，放入驱动包</t>
+  </si>
+  <si>
+    <t>驱动包右键---Add as Library</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -423,6 +453,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -432,7 +469,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,6 +507,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -454,7 +575,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,101 +589,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -594,169 +624,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +809,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -798,40 +843,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,17 +866,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,6 +894,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -887,10 +917,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,16 +929,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -917,123 +947,126 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1048,7 +1081,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -1060,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,194 +1447,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B35"/>
+  <dimension ref="A3:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="50.7777777777778" style="3" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:2">
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="5" s="3" customFormat="1" spans="2:2">
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:2">
-      <c r="A10" s="2" t="s">
+    <row r="10" s="3" customFormat="1" spans="1:2">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="2:2">
-      <c r="B11" s="2" t="s">
+    <row r="11" s="3" customFormat="1" spans="2:2">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="3" customFormat="1" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="2:2">
-      <c r="B13" s="2" t="s">
+    <row r="13" s="3" customFormat="1" spans="2:2">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="3" customFormat="1" spans="1:2">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="2:2">
-      <c r="B16" s="2" t="s">
+    <row r="16" s="3" customFormat="1" spans="2:2">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="2:2">
+    <row r="18" s="3" customFormat="1" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="1:2">
-      <c r="A22" s="9" t="s">
+    <row r="22" s="6" customFormat="1" spans="1:2">
+      <c r="A22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:2">
-      <c r="A26" s="2" t="s">
+    <row r="26" s="3" customFormat="1" spans="1:2">
+      <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:2">
-      <c r="A27" s="2" t="s">
+    <row r="27" s="3" customFormat="1" spans="1:2">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:2">
-      <c r="A28" s="2" t="s">
+    <row r="28" s="3" customFormat="1" spans="1:2">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:2">
-      <c r="A29" s="2" t="s">
+    <row r="29" s="3" customFormat="1" spans="1:2">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:1">
-      <c r="A30" s="2" t="s">
+    <row r="30" s="3" customFormat="1" spans="1:1">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:2">
-      <c r="A31" s="2" t="s">
+    <row r="31" s="3" customFormat="1" spans="1:2">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:2">
-      <c r="A32" s="2" t="s">
+    <row r="32" s="3" customFormat="1" spans="1:2">
+      <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="2:2">
-      <c r="B33" s="2" t="s">
+    <row r="33" s="3" customFormat="1" spans="2:2">
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="2:2">
-      <c r="B34" s="2" t="s">
+    <row r="34" s="3" customFormat="1" spans="2:2">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="2:2">
-      <c r="B35" s="2" t="s">
+    <row r="35" s="3" customFormat="1" spans="2:2">
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1633,202 +1667,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="30.7777777777778" style="3" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:2">
+      <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" s="3" customFormat="1" spans="1:2">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="3" customFormat="1" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="13" s="3" customFormat="1" spans="1:2">
+      <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:2">
+      <c r="A16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="17" s="3" customFormat="1" spans="1:2">
+      <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:2">
-      <c r="A18" s="2" t="s">
+    <row r="18" s="3" customFormat="1" spans="1:2">
+      <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:2">
-      <c r="A19" s="2" t="s">
+    <row r="19" s="3" customFormat="1" spans="1:2">
+      <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:2">
-      <c r="A20" s="2" t="s">
+    <row r="20" s="3" customFormat="1" spans="1:2">
+      <c r="A20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:2">
-      <c r="A21" s="2" t="s">
+    <row r="21" s="3" customFormat="1" spans="1:2">
+      <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:2">
-      <c r="A22" s="2" t="s">
+    <row r="22" s="3" customFormat="1" spans="1:2">
+      <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:2">
-      <c r="A23" s="2" t="s">
+    <row r="23" s="3" customFormat="1" spans="1:2">
+      <c r="A23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:2">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="3" customFormat="1" spans="1:2">
+      <c r="A24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:2">
-      <c r="A25" s="2" t="s">
+    <row r="25" s="3" customFormat="1" spans="1:2">
+      <c r="A25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1855,40 +1889,40 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="50.7777777777778" style="3" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="3" customFormat="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1902,15 +1936,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1922,18 +1956,54 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="2:2">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.matools.com/api/java8"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://www.matools.com/api/java8" tooltip="https://www.matools.com/api/java8"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.runoob.com/java/java-tutorial.html"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://blog.csdn.net/qq_40147863/article/details/83051268"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://downloads.mysql.com/archives/c-j/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -97,6 +97,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>环境变量</t>
     </r>
     <r>
@@ -268,7 +275,7 @@
     <t>查看源码</t>
   </si>
   <si>
-    <t>ctrl + 鼠标左键单击</t>
+    <t>先选变量，ctrl + 鼠标左键单击</t>
   </si>
   <si>
     <t>格式化代码</t>
@@ -396,7 +403,31 @@
     <t>Failed to start bean 'documentationPluginsBootstrapper'; nested exception is java.lang.NullPointerException</t>
   </si>
   <si>
-    <t>java教程</t>
+    <t>file=null</t>
+  </si>
+  <si>
+    <t>java.lang.NullPointerException: null</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>springBoot中上传文件MultipartFile报空</t>
+  </si>
+  <si>
+    <t>response.setContentType("multipart/form-data");</t>
+  </si>
+  <si>
+    <t>Current request is not a multipart request</t>
+  </si>
+  <si>
+    <t>net start mysql服务无法启动</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/wendaobiancheng/p/10561594.html</t>
+  </si>
+  <si>
+    <t>java菜鸟教程</t>
   </si>
   <si>
     <t>https://www.runoob.com/java/java-tutorial.html</t>
@@ -432,8 +463,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -469,6 +500,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -484,15 +567,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,66 +597,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,13 +605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -590,7 +614,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,19 +655,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,37 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,13 +793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +805,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,85 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,21 +859,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -860,8 +876,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,7 +886,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,15 +913,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,6 +931,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -917,10 +948,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -929,137 +960,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1101,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1078,10 +1112,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -1449,7 +1483,7 @@
   <sheetPr/>
   <dimension ref="A3:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1472,12 +1506,12 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="2:2">
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:2">
       <c r="A6" s="3" t="s">
@@ -1491,7 +1525,7 @@
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1530,7 +1564,7 @@
       </c>
     </row>
     <row r="15" s="3" customFormat="1" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1548,23 +1582,23 @@
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:2">
-      <c r="A22" s="11" t="s">
+    <row r="22" s="8" customFormat="1" spans="1:2">
+      <c r="A22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="1:2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1661,8 +1695,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1672,11 +1706,11 @@
     <col min="3" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" s="3" t="s">
@@ -1694,11 +1728,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1726,11 +1760,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" s="3" customFormat="1" spans="1:2">
       <c r="A11" s="3" t="s">
@@ -1756,11 +1790,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A15" s="5" t="s">
+    <row r="15" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A15" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="1:2">
       <c r="A16" s="3" t="s">
@@ -1862,7 +1896,7 @@
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1881,13 +1915,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="50.7777777777778" style="3" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" style="3" customWidth="1"/>
@@ -1926,7 +1960,42 @@
         <v>93</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="https://www.cnblogs.com/wendaobiancheng/p/10561594.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1939,7 +2008,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1950,10 +2019,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -1961,38 +2030,38 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
     <sheet name="idea快捷键" sheetId="1" r:id="rId2"/>
     <sheet name="报错集" sheetId="3" r:id="rId3"/>
     <sheet name="基础学习" sheetId="4" r:id="rId4"/>
+    <sheet name="就业方向" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -456,15 +457,33 @@
   <si>
     <t>驱动包右键---Add as Library</t>
   </si>
+  <si>
+    <t>JavaEE软件工程师</t>
+  </si>
+  <si>
+    <t>电商、团购、众筹、sns（社交）、教育、金融、搜索</t>
+  </si>
+  <si>
+    <t>大数据软件工程师</t>
+  </si>
+  <si>
+    <t>大数据应用工程师、大数据算法工程师、大数据分析与挖掘</t>
+  </si>
+  <si>
+    <t>Android软件工程师</t>
+  </si>
+  <si>
+    <t>android平台</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -500,7 +519,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,22 +562,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -555,6 +573,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,13 +608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -597,9 +616,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,20 +647,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -655,6 +674,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -679,157 +704,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,6 +873,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,11 +938,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,15 +959,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -948,10 +967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,16 +979,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,10 +1000,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,100 +1012,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1483,7 +1502,7 @@
   <sheetPr/>
   <dimension ref="A3:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1695,7 +1714,7 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2077,4 +2096,49 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -98,13 +98,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>环境变量</t>
     </r>
     <r>
@@ -150,7 +143,34 @@
     <t>java -version</t>
   </si>
   <si>
-    <t>idea新建java项目---略</t>
+    <t>java项目</t>
+  </si>
+  <si>
+    <t>idea新建java项目</t>
+  </si>
+  <si>
+    <t>File---New---Project--Java---略</t>
+  </si>
+  <si>
+    <t>1.添加插件jar包</t>
+  </si>
+  <si>
+    <t>项目右键---Add Framework---略</t>
+  </si>
+  <si>
+    <t>2.引入外部插件jar包：</t>
+  </si>
+  <si>
+    <t>Java通过驱动包（jar包）连接MySQL数据库</t>
+  </si>
+  <si>
+    <t>https://downloads.mysql.com/archives/c-j/</t>
+  </si>
+  <si>
+    <t>新建libs文件夹，放入驱动包</t>
+  </si>
+  <si>
+    <t>驱动包右键---Add as Library---略</t>
   </si>
   <si>
     <t>以下需要才用，其他代码编辑器</t>
@@ -446,18 +466,6 @@
     <t>https://blog.csdn.net/qq_40147863/article/details/83051268</t>
   </si>
   <si>
-    <t>Java通过驱动包（jar包）连接MySQL数据库</t>
-  </si>
-  <si>
-    <t>https://downloads.mysql.com/archives/c-j/</t>
-  </si>
-  <si>
-    <t>新建libs文件夹，放入驱动包</t>
-  </si>
-  <si>
-    <t>驱动包右键---Add as Library</t>
-  </si>
-  <si>
     <t>JavaEE软件工程师</t>
   </si>
   <si>
@@ -481,12 +489,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,7 +527,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,6 +549,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,22 +576,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,18 +623,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,13 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -632,21 +662,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -674,19 +689,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,157 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,11 +894,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -905,9 +918,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,30 +974,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -967,28 +982,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,120 +1018,117 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1134,9 +1146,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1148,6 +1157,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1500,208 +1512,251 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B35"/>
+  <dimension ref="A3:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" style="3" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="50.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="2" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="2:2">
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="5" s="2" customFormat="1" spans="2:2">
+      <c r="B5" s="8"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="2" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="2:2">
-      <c r="B11" s="3" t="s">
+    <row r="11" s="2" customFormat="1" spans="2:2">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="2:2">
-      <c r="B13" s="3" t="s">
+    <row r="13" s="2" customFormat="1" spans="2:2">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:2">
-      <c r="A15" s="11" t="s">
+    <row r="15" s="2" customFormat="1" spans="1:2">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="2:2">
-      <c r="B16" s="3" t="s">
+    <row r="16" s="2" customFormat="1" spans="2:2">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="22" s="8" customFormat="1" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:2">
-      <c r="A25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:2">
-      <c r="A26" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:2">
-      <c r="A27" s="3" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:2">
-      <c r="A28" s="3" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:2">
-      <c r="A29" s="3" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:1">
-      <c r="A30" s="3" t="s">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:2">
-      <c r="A31" s="3" t="s">
+    <row r="29" s="2" customFormat="1" spans="1:2">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:2">
-      <c r="A32" s="3" t="s">
+    <row r="30" s="2" customFormat="1" spans="1:2">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="2:2">
-      <c r="B33" s="3" t="s">
+    <row r="31" s="2" customFormat="1" spans="1:2">
+      <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="2:2">
-      <c r="B34" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="2:2">
-      <c r="B35" s="3" t="s">
+    <row r="32" s="2" customFormat="1" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
+  <mergeCells count="9">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="https://www.oracle.com/java/technologies/javase-downloads.html&#10;选exe" tooltip="https://www.oracle.com/java/technologies/javase-downloads.html"/>
-    <hyperlink ref="B25" r:id="rId2" display="http://www.sublimetext.com/3"/>
+    <hyperlink ref="B28" r:id="rId2" display="http://www.sublimetext.com/3"/>
     <hyperlink ref="B4" r:id="rId3" display="https://www.jetbrains.com&#10;选Developer Tools 》选IntelliJ IDEA" tooltip="https://www.jetbrains.com"/>
+    <hyperlink ref="B22" r:id="rId4" display="https://downloads.mysql.com/archives/c-j/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1715,208 +1770,208 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" style="3" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="30.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" s="3" customFormat="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:2">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="3" t="s">
+    </row>
+    <row r="10" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:2">
-      <c r="A18" s="3" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:2">
-      <c r="A19" s="3" t="s">
+    <row r="13" s="2" customFormat="1" spans="1:2">
+      <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:2">
-      <c r="A20" s="3" t="s">
+    <row r="15" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:2">
-      <c r="A22" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:2">
-      <c r="A24" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:2">
+      <c r="A20" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>81</v>
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>83</v>
+      <c r="A27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>85</v>
+      <c r="A28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1942,73 +1997,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" style="3" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="50.7777777777778" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" s="3" customFormat="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
-      <c r="A4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>91</v>
+    <row r="2" s="2" customFormat="1" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>93</v>
+      <c r="A5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>95</v>
+      <c r="A6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>97</v>
+      <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>101</v>
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2024,13 +2079,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
@@ -2038,10 +2093,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2049,49 +2104,25 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.matools.com/api/java8" tooltip="https://www.matools.com/api/java8"/>
     <hyperlink ref="B1" r:id="rId2" display="https://www.runoob.com/java/java-tutorial.html"/>
     <hyperlink ref="B5" r:id="rId3" display="https://blog.csdn.net/qq_40147863/article/details/83051268"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://downloads.mysql.com/archives/c-j/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2103,7 +2134,7 @@
   <sheetPr/>
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2115,26 +2146,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -98,6 +98,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>环境变量</t>
     </r>
     <r>
@@ -448,6 +455,12 @@
     <t>https://www.cnblogs.com/wendaobiancheng/p/10561594.html</t>
   </si>
   <si>
+    <t>where条件</t>
+  </si>
+  <si>
+    <t>Expected one result (or null) to be returned by selectOne(), but found: 98</t>
+  </si>
+  <si>
     <t>java菜鸟教程</t>
   </si>
   <si>
@@ -489,8 +502,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -533,41 +546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +554,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -584,44 +637,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -630,6 +645,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -639,23 +661,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,61 +702,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +834,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,43 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,43 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,6 +887,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -892,11 +916,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,17 +951,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,23 +982,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,10 +995,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -994,16 +1007,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1015,10 +1028,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,97 +1046,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1514,7 +1527,7 @@
   <sheetPr/>
   <dimension ref="A3:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1769,7 +1782,7 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -1989,10 +2002,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2064,6 +2077,14 @@
       </c>
       <c r="B9" s="3" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2103,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2093,10 +2114,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2104,25 +2125,25 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.matools.com/api/java8" tooltip="https://www.matools.com/api/java8"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.runoob.com/java/java-tutorial.html"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://blog.csdn.net/qq_40147863/article/details/83051268"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.runoob.com/java/java-tutorial.html" tooltip="https://www.runoob.com/java/java-tutorial.html"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://blog.csdn.net/qq_40147863/article/details/83051268" tooltip="https://blog.csdn.net/qq_40147863/article/details/83051268"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2146,26 +2167,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -360,10 +360,10 @@
     <t>&lt;%--   000  --%&gt;</t>
   </si>
   <si>
-    <t>生成构造器或get set或其他</t>
-  </si>
-  <si>
-    <t>鼠标右击---Generate---Constructor---选无参和有参</t>
+    <t>生成构造器或get set或toString</t>
+  </si>
+  <si>
+    <t>鼠标右击---Generate</t>
   </si>
   <si>
     <t>找底层自动配置类</t>
@@ -546,6 +546,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,20 +599,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -583,6 +613,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -591,8 +642,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,14 +660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,59 +674,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -708,175 +708,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,10 +892,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -916,26 +923,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,8 +952,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,15 +987,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -995,10 +995,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,16 +1007,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1028,112 +1028,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1527,7 +1527,7 @@
   <sheetPr/>
   <dimension ref="A3:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1782,8 +1782,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1964,7 +1964,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2004,7 +2004,7 @@
   <sheetPr/>
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2103,7 +2103,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -30,14 +30,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">https://www.jetbrains.com
 </t>
     </r>
@@ -62,6 +54,21 @@
       </rPr>
       <t>Developer Tools 》选IntelliJ IDEA</t>
     </r>
+  </si>
+  <si>
+    <t>idea账号</t>
+  </si>
+  <si>
+    <t>github账号</t>
+  </si>
+  <si>
+    <t>first name: Lu</t>
+  </si>
+  <si>
+    <t>last name: Rafael</t>
+  </si>
+  <si>
+    <t>密码：SUNsun2468</t>
   </si>
   <si>
     <t>JDK：java的开发工具包</t>
@@ -503,8 +510,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -540,6 +547,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -547,7 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,6 +569,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,7 +612,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,52 +649,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,22 +674,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -666,16 +681,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,13 +709,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,18 +829,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -744,43 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,85 +871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,24 +894,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -919,17 +908,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +932,35 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,10 +1002,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,137 +1014,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1169,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1171,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -1525,10 +1535,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B38"/>
+  <dimension ref="A3:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1554,222 +1564,250 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="2:2">
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A7" s="6" t="s">
+    <row r="6" s="2" customFormat="1" spans="2:2">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="2:2">
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+    <row r="8" s="2" customFormat="1" spans="2:2">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:2">
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="12" s="2" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="2:2">
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="2:2">
-      <c r="B13" s="2" t="s">
+    <row r="15" s="2" customFormat="1" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" s="2" customFormat="1" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="2:2">
       <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:2">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="18" s="2" customFormat="1" spans="2:2">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11" t="s">
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:2">
+      <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" s="2" customFormat="1" spans="2:2">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:2">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="12" t="s">
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:2">
-      <c r="A29" s="2" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:2">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:1">
-      <c r="A33" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:2">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:2">
       <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="2:2">
-      <c r="B36" s="2" t="s">
+    <row r="38" s="2" customFormat="1" spans="1:1">
+      <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="2:2">
-      <c r="B37" s="2" t="s">
+    <row r="39" s="2" customFormat="1" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="2:2">
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="40" s="2" customFormat="1" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
+  <mergeCells count="10">
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="https://www.oracle.com/java/technologies/javase-downloads.html&#10;选exe" tooltip="https://www.oracle.com/java/technologies/javase-downloads.html"/>
-    <hyperlink ref="B28" r:id="rId2" display="http://www.sublimetext.com/3"/>
+    <hyperlink ref="B12" r:id="rId1" display="https://www.oracle.com/java/technologies/javase-downloads.html&#10;选exe" tooltip="https://www.oracle.com/java/technologies/javase-downloads.html"/>
+    <hyperlink ref="B33" r:id="rId2" display="http://www.sublimetext.com/3" tooltip="http://www.sublimetext.com/3"/>
     <hyperlink ref="B4" r:id="rId3" display="https://www.jetbrains.com&#10;选Developer Tools 》选IntelliJ IDEA" tooltip="https://www.jetbrains.com"/>
-    <hyperlink ref="B22" r:id="rId4" display="https://downloads.mysql.com/archives/c-j/"/>
+    <hyperlink ref="B27" r:id="rId4" display="https://downloads.mysql.com/archives/c-j/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1782,7 +1820,7 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1795,196 +1833,196 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" s="2" customFormat="1" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2017,74 +2055,74 @@
   <sheetData>
     <row r="2" s="2" customFormat="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2114,10 +2152,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2125,18 +2163,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2167,26 +2205,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">https://www.jetbrains.com
 </t>
     </r>
@@ -379,7 +387,7 @@
     <t>双击shift     输入WebMvcAutoConfiguration</t>
   </si>
   <si>
-    <t>导包</t>
+    <t>提示导包，红线时抛异常</t>
   </si>
   <si>
     <t>Alt+enter</t>
@@ -509,10 +517,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -561,6 +569,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -568,7 +583,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,28 +591,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,13 +616,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,7 +645,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,7 +653,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,6 +668,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -709,181 +717,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,15 +938,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -950,17 +949,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,6 +982,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1002,10 +1010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,133 +1022,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1537,7 +1545,7 @@
   <sheetPr/>
   <dimension ref="A3:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1820,8 +1828,8 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1922,7 +1930,7 @@
       <c r="B15" s="5"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2018,7 +2026,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B28" s="6" t="s">

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>Expected one result (or null) to be returned by selectOne(), but found: 98</t>
+  </si>
+  <si>
+    <t>selectOne（）应返回一个结果（或null），但找到了：2</t>
+  </si>
+  <si>
+    <t>Expected one result (or null) to be returned by selectOne(), but found: 2</t>
   </si>
   <si>
     <t>java菜鸟教程</t>
@@ -1828,7 +1834,7 @@
   <sheetPr/>
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -2048,10 +2054,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2131,6 +2137,14 @@
       </c>
       <c r="B11" s="2" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2160,10 +2174,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2171,18 +2185,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2213,26 +2227,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="报错集" sheetId="3" r:id="rId3"/>
     <sheet name="基础学习" sheetId="4" r:id="rId4"/>
     <sheet name="就业方向" sheetId="5" r:id="rId5"/>
+    <sheet name="数据类型" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -516,6 +517,325 @@
   </si>
   <si>
     <t>android平台</t>
+  </si>
+  <si>
+    <t>定义变量(类型+名称+值)
+注意:
+L、F要有,为了区别，并不代表任何数字上的意义</t>
+  </si>
+  <si>
+    <t>占用存储空间
+占多少位计算
+1字节 = 8位
+1byte = 8bit</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>8个基本数据类型</t>
+  </si>
+  <si>
+    <t>数值型</t>
+  </si>
+  <si>
+    <t>整数类型</t>
+  </si>
+  <si>
+    <t>byte s2 = 29;</t>
+  </si>
+  <si>
+    <t>1个字节</t>
+  </si>
+  <si>
+    <r>
+      <t>区间: -128 ~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127</t>
+    </r>
+  </si>
+  <si>
+    <t>short s3 = 97;// 短整型</t>
+  </si>
+  <si>
+    <t>2个字节</t>
+  </si>
+  <si>
+    <r>
+      <t>区间: -(2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)-1</t>
+    </r>
+  </si>
+  <si>
+    <t>int s1 = 23;</t>
+  </si>
+  <si>
+    <t>4个字节</t>
+  </si>
+  <si>
+    <r>
+      <t>区间: -(2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ~ (2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)-1</t>
+    </r>
+  </si>
+  <si>
+    <t>long s4 = 78L;// 长整型</t>
+  </si>
+  <si>
+    <t>8个字节</t>
+  </si>
+  <si>
+    <r>
+      <t>区间: -(2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ~ (2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>63</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)-1</t>
+    </r>
+  </si>
+  <si>
+    <t>浮点类型</t>
+  </si>
+  <si>
+    <t>float s5 = 24.7F;// 单精度,有效小数位6-7位
+float s6 = (float)24.7;</t>
+  </si>
+  <si>
+    <t>区间: -3.403E38 ~ 3.403E38</t>
+  </si>
+  <si>
+    <t>double s7 = 88.2;// 双精度,有效小数位15位</t>
+  </si>
+  <si>
+    <t>区间: -1.798E308 ~ 1.798E308</t>
+  </si>
+  <si>
+    <t>字符型</t>
+  </si>
+  <si>
+    <t>char s8 = '男';// 必须单引号</t>
+  </si>
+  <si>
+    <t>布尔型</t>
+  </si>
+  <si>
+    <t>boolean s9 = true;</t>
+  </si>
+  <si>
+    <t>引用数据类型</t>
+  </si>
+  <si>
+    <t>类(隐式继承Object,类是对象)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s10 {
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>String k1 = "女";// 必须双引号</t>
+  </si>
+  <si>
+    <t>接口</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> s11 {
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>int[] s12 = { 92, 203, 053 };
+int[] s13 = new int[5];
+int[][] lsjs = { { 923 }, { 312, 12 } };</t>
   </si>
 </sst>
 </file>
@@ -528,7 +848,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +1021,33 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1158,9 +1505,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -1551,256 +1916,256 @@
   <sheetPr/>
   <dimension ref="A3:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="50.7777777777778" style="8" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="8" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:2">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="8" customFormat="1" spans="1:2">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="2:2">
-      <c r="B6" s="8" t="s">
+    <row r="6" s="8" customFormat="1" spans="2:2">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:2">
-      <c r="B7" s="7" t="s">
+    <row r="7" s="8" customFormat="1" spans="2:2">
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:2">
-      <c r="B8" s="8" t="s">
+    <row r="8" s="8" customFormat="1" spans="2:2">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="2:2">
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
-      <c r="A11" s="2" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="2:2">
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:2">
+      <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="8" customFormat="1" ht="28.8" spans="1:2">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:2">
-      <c r="A15" s="2" t="s">
+    <row r="15" s="8" customFormat="1" spans="1:2">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="2:2">
-      <c r="B16" s="2" t="s">
+    <row r="16" s="8" customFormat="1" spans="2:2">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="17" s="8" customFormat="1" spans="1:2">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="2:2">
-      <c r="B18" s="2" t="s">
+    <row r="18" s="8" customFormat="1" spans="2:2">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:2">
-      <c r="A20" s="10" t="s">
+    <row r="20" s="8" customFormat="1" spans="1:2">
+      <c r="A20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="2:2">
-      <c r="B21" s="2" t="s">
+    <row r="21" s="8" customFormat="1" spans="2:2">
+      <c r="B21" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:2">
+      <c r="A24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" s="8" customFormat="1" spans="1:2">
+      <c r="A33" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:2">
-      <c r="A34" s="2" t="s">
+    <row r="34" s="8" customFormat="1" spans="1:2">
+      <c r="A34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:2">
-      <c r="A35" s="2" t="s">
+    <row r="35" s="8" customFormat="1" spans="1:2">
+      <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:2">
-      <c r="A36" s="2" t="s">
+    <row r="36" s="8" customFormat="1" spans="1:2">
+      <c r="A36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:2">
-      <c r="A37" s="2" t="s">
+    <row r="37" s="8" customFormat="1" spans="1:2">
+      <c r="A37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:1">
-      <c r="A38" s="2" t="s">
+    <row r="38" s="8" customFormat="1" spans="1:1">
+      <c r="A38" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:2">
-      <c r="A39" s="2" t="s">
+    <row r="39" s="8" customFormat="1" spans="1:2">
+      <c r="A39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:2">
-      <c r="A40" s="2" t="s">
+    <row r="40" s="8" customFormat="1" spans="1:2">
+      <c r="A40" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="2:2">
-      <c r="B41" s="2" t="s">
+    <row r="41" s="8" customFormat="1" spans="2:2">
+      <c r="B41" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="2:2">
-      <c r="B42" s="2" t="s">
+    <row r="42" s="8" customFormat="1" spans="2:2">
+      <c r="B42" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="2:2">
-      <c r="B43" s="2" t="s">
+    <row r="43" s="8" customFormat="1" spans="2:2">
+      <c r="B43" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1840,202 +2205,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="30.7777777777778" style="8" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A5" s="5" t="s">
+    <row r="5" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:2">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="8" customFormat="1" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:2">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="8" customFormat="1" spans="1:2">
+      <c r="A7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:2">
+      <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="8" customFormat="1" spans="1:2">
+      <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="13" s="8" customFormat="1" spans="1:2">
+      <c r="A13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A15" s="5" t="s">
+    <row r="15" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A15" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:2">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:2">
+      <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="17" s="8" customFormat="1" spans="1:2">
+      <c r="A17" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:2">
-      <c r="A18" s="2" t="s">
+    <row r="18" s="8" customFormat="1" spans="1:2">
+      <c r="A18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:2">
-      <c r="A19" s="2" t="s">
+    <row r="19" s="8" customFormat="1" spans="1:2">
+      <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:2">
-      <c r="A20" s="2" t="s">
+    <row r="20" s="8" customFormat="1" spans="1:2">
+      <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:2">
-      <c r="A21" s="2" t="s">
+    <row r="21" s="8" customFormat="1" spans="1:2">
+      <c r="A21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:2">
-      <c r="A22" s="2" t="s">
+    <row r="22" s="8" customFormat="1" spans="1:2">
+      <c r="A22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:2">
-      <c r="A23" s="2" t="s">
+    <row r="23" s="8" customFormat="1" spans="1:2">
+      <c r="A23" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:2">
-      <c r="A24" s="2" t="s">
+    <row r="24" s="8" customFormat="1" spans="1:2">
+      <c r="A24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:2">
-      <c r="A25" s="2" t="s">
+    <row r="25" s="8" customFormat="1" spans="1:2">
+      <c r="A25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2056,94 +2421,94 @@
   <sheetPr/>
   <dimension ref="A2:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="50.7777777777778" style="8" customWidth="1"/>
+    <col min="2" max="2" width="120.777777777778" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="8" customFormat="1" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:2">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:2">
+      <c r="A3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2176,18 +2541,18 @@
       <c r="A1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="1"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2195,7 +2560,7 @@
       <c r="A5" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2253,4 +2618,211 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="3" width="20.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="45.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="20.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="80" customHeight="1" spans="1:6">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" ht="15.6" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" ht="15.6" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" ht="15.6" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" ht="15.6" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" ht="43.2" spans="1:4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B10:C11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="169">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -316,10 +316,11 @@
     <t>常用快捷键</t>
   </si>
   <si>
-    <t>查看源码</t>
-  </si>
-  <si>
-    <t>先选变量，ctrl + 鼠标左键单击</t>
+    <t>查看源码和显示类结构</t>
+  </si>
+  <si>
+    <t>先选变量，ctrl + 鼠标左键单击
+接着右键》图》显示图》点m</t>
   </si>
   <si>
     <t>格式化代码</t>
@@ -392,6 +393,12 @@
   </si>
   <si>
     <t>Alt+enter</t>
+  </si>
+  <si>
+    <t>环绕方式，比如try catch</t>
+  </si>
+  <si>
+    <t>选中环绕代码，Ctrl+Alt+t</t>
   </si>
   <si>
     <t>必须对其进行捕获或声明以便抛出</t>
@@ -549,6 +556,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>区间: -128 ~</t>
     </r>
     <r>
@@ -579,6 +593,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>区间: -(2</t>
     </r>
     <r>
@@ -639,6 +660,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>区间: -(2</t>
     </r>
     <r>
@@ -692,6 +720,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>区间: -(2</t>
     </r>
     <r>
@@ -773,6 +808,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public </t>
     </r>
     <r>
@@ -805,6 +847,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">public </t>
     </r>
     <r>
@@ -1545,6 +1594,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1553,9 +1605,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1939,7 +1988,7 @@
       <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1947,31 +1996,31 @@
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="2:2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="2:2">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="2:2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:2">
       <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" s="8" customFormat="1" spans="2:2">
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:2">
       <c r="A11" s="8" t="s">
@@ -1985,7 +2034,7 @@
       <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2024,7 +2073,7 @@
       </c>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2197,10 +2246,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2300,11 +2349,11 @@
       </c>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" s="8" customFormat="1" spans="1:2">
+    <row r="16" s="8" customFormat="1" ht="28.8" spans="1:2">
       <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="13" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2402,6 +2451,14 @@
       </c>
       <c r="B28" s="12" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2434,82 +2491,82 @@
   <sheetData>
     <row r="2" s="8" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2539,10 +2596,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2550,18 +2607,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2592,26 +2649,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2682,7 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2642,33 +2699,33 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -2676,13 +2733,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:6">
@@ -2690,13 +2747,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:6">
@@ -2704,29 +2761,29 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="1:6">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2734,51 +2791,51 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2786,27 +2843,27 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>java Hello</t>
-  </si>
-  <si>
-    <t>运行类</t>
-  </si>
-  <si>
-    <t>java Cat</t>
   </si>
   <si>
     <t>右键---刷新</t>
@@ -1963,10 +1957,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B43"/>
+  <dimension ref="A3:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2174,16 +2168,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" s="8" customFormat="1" spans="1:2">
+    <row r="37" s="8" customFormat="1" spans="1:1">
       <c r="A37" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="8" t="s">
+    </row>
+    <row r="38" s="8" customFormat="1" spans="1:2">
+      <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="38" s="8" customFormat="1" spans="1:1">
-      <c r="A38" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2195,27 +2189,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" s="8" customFormat="1" spans="1:2">
-      <c r="A40" s="8" t="s">
+    <row r="40" s="8" customFormat="1" spans="2:2">
+      <c r="B40" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="41" s="8" customFormat="1" spans="2:2">
       <c r="B41" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" s="8" customFormat="1" spans="2:2">
       <c r="B42" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" s="8" customFormat="1" spans="2:2">
-      <c r="B43" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2229,7 +2215,7 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A39:A42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" display="https://www.oracle.com/java/technologies/javase-downloads.html&#10;选exe" tooltip="https://www.oracle.com/java/technologies/javase-downloads.html"/>
@@ -2261,204 +2247,204 @@
   <sheetData>
     <row r="1" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="11"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" s="8" customFormat="1" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A15" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="11"/>
     </row>
     <row r="16" s="8" customFormat="1" ht="28.8" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="1" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" s="8" customFormat="1" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B27" s="12" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2491,82 +2477,82 @@
   <sheetData>
     <row r="2" s="8" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2596,10 +2582,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2607,18 +2593,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2649,26 +2635,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2699,33 +2685,33 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -2733,13 +2719,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:6">
@@ -2747,13 +2733,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:6">
@@ -2761,29 +2747,29 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
         <v>152</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2791,51 +2777,51 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2843,27 +2829,27 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="170">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -482,6 +482,33 @@
   </si>
   <si>
     <t>Expected one result (or null) to be returned by selectOne(), but found: 2</t>
+  </si>
+  <si>
+    <t>java: 方法引用无效 找不到符号 符号: 方法 getUserId()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lombok依赖版本与idea内置lombok插件版本相差太多，一般来说将lombok依赖版本提高即可。
+&lt;dependency&gt;
+   &lt;groupId&gt;org.projectlombok&lt;/groupId&gt;
+   &lt;artifactId&gt;lombok&lt;/artifactId&gt;
+   &lt;version&gt;1.18.14&lt;/version&gt;
+  &lt;/dependency&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实体类成功get和set方法台冗余了</t>
+    </r>
+  </si>
+  <si>
+    <t>log cannot be resolved</t>
   </si>
   <si>
     <t>java菜鸟教程</t>
@@ -1579,6 +1606,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1587,9 +1617,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1979,7 +2006,7 @@
       </c>
     </row>
     <row r="4" s="8" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -2010,7 +2037,7 @@
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="14"/>
     </row>
     <row r="10" s="8" customFormat="1" spans="2:2">
@@ -2025,7 +2052,7 @@
       </c>
     </row>
     <row r="12" s="8" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -2033,7 +2060,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -2067,7 +2094,7 @@
       </c>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2131,10 +2158,10 @@
       <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="11"/>
+      <c r="B32" s="12"/>
     </row>
     <row r="33" s="8" customFormat="1" spans="1:2">
       <c r="A33" s="8" t="s">
@@ -2234,7 +2261,7 @@
   <sheetPr/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -2245,11 +2272,11 @@
     <col min="3" max="16384" width="8.88888888888889" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
@@ -2267,11 +2294,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A5" s="11" t="s">
+    <row r="5" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2299,11 +2326,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:2">
       <c r="A11" s="8" t="s">
@@ -2329,17 +2356,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" s="10" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A15" s="11" t="s">
+    <row r="15" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" s="8" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2416,7 +2443,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2424,23 +2451,23 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B29" s="8" t="s">
@@ -2462,15 +2489,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B13"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" style="8" customWidth="1"/>
+    <col min="1" max="1" width="60.7777777777778" style="8" customWidth="1"/>
     <col min="2" max="2" width="120.777777777778" style="8" customWidth="1"/>
     <col min="3" max="16384" width="8.88888888888889" style="8"/>
   </cols>
@@ -2553,6 +2580,19 @@
       </c>
       <c r="B13" s="8" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="14" ht="100.8" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2582,10 +2622,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2593,18 +2633,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2635,26 +2675,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2685,33 +2725,33 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -2719,13 +2759,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:6">
@@ -2733,13 +2773,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:6">
@@ -2747,29 +2787,29 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2777,51 +2817,51 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2829,27 +2869,27 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="172">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -488,6 +488,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">lombok依赖版本与idea内置lombok插件版本相差太多，一般来说将lombok依赖版本提高即可。
 &lt;dependency&gt;
    &lt;groupId&gt;org.projectlombok&lt;/groupId&gt;
@@ -509,6 +516,12 @@
   </si>
   <si>
     <t>log cannot be resolved</t>
+  </si>
+  <si>
+    <t>lombok失效问题</t>
+  </si>
+  <si>
+    <t>子工程--clean  重新运行</t>
   </si>
   <si>
     <t>java菜鸟教程</t>
@@ -2489,10 +2502,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -2593,6 +2606,14 @@
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2622,10 +2643,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2633,18 +2654,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2675,26 +2696,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2725,33 +2746,33 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
@@ -2759,13 +2780,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:6">
@@ -2773,13 +2794,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:6">
@@ -2787,29 +2808,29 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2817,51 +2838,51 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2869,27 +2890,27 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="环境安装" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
   <si>
     <t>editplus、notepad++、Sublime Text、idea、eclipse</t>
+  </si>
+  <si>
+    <t>idea</t>
   </si>
   <si>
     <t>idea官网与下载</t>
@@ -80,24 +83,31 @@
     <t>密码：SUNsun2468</t>
   </si>
   <si>
+    <t>JDK</t>
+  </si>
+  <si>
     <t>JDK：java的开发工具包</t>
   </si>
   <si>
-    <t>含有jvm虚拟机，不同操作系统运行(Window,Linux,Mac)</t>
+    <r>
+      <t>含有jvm虚拟机，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同操作系统运行(Window,Linux,Mac)</t>
+    </r>
   </si>
   <si>
     <t>JDK下载</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">https://www.oracle.com/java/technologies/javase-downloads.html
 </t>
     </r>
@@ -113,41 +123,21 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>环境变量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (分为用户变量和系统变量)</t>
-    </r>
-  </si>
-  <si>
-    <t>桌面》我的电脑》右击》属性》高级系统设置》高级》环境变量</t>
-  </si>
-  <si>
-    <t>用户变量：</t>
+    <t>环境变量配置</t>
+  </si>
+  <si>
+    <t>位置：桌面》我的电脑》右击》属性》高级系统设置》高级》环境变量
+系统变量：电脑所用用户都能用
+用户变量：电脑只有该用户可以用</t>
+  </si>
+  <si>
+    <t>用户变量</t>
   </si>
   <si>
     <t>JAVA_HOME</t>
   </si>
   <si>
     <t>C:\Program Files\Java\jdk-11.0.8</t>
-  </si>
-  <si>
-    <t>用户变量:</t>
   </si>
   <si>
     <t>path---编辑---新建</t>
@@ -1588,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1631,17 +1621,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1997,17 +1984,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:B42"/>
+  <dimension ref="A3:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50.7777777777778" style="8" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="50.775" style="8" customWidth="1"/>
+    <col min="2" max="2" width="80.775" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="8"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -2018,29 +2005,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A4" s="13" t="s">
+    <row r="4" customFormat="1" spans="1:2">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="27" spans="1:2">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" s="8" customFormat="1" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:2">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" s="8" customFormat="1" spans="2:2">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="2:2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2049,113 +2037,116 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="2:2">
-      <c r="B10" s="16"/>
+    <row r="9" s="8" customFormat="1" spans="2:2">
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:2">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" s="8" customFormat="1" ht="28.8" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="1:2">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+    <row r="13" s="8" customFormat="1" ht="27" spans="1:2">
+      <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="15" ht="40.5" spans="1:2">
+      <c r="A15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" spans="2:2">
+    <row r="16" s="8" customFormat="1" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" s="8" customFormat="1" spans="1:2">
-      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="2:2">
       <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" spans="2:2">
+    <row r="18" s="8" customFormat="1" spans="1:2">
+      <c r="A18" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" spans="1:2">
-      <c r="A20" s="10" t="s">
+    <row r="19" s="8" customFormat="1" spans="2:2">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:2">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" s="8" customFormat="1" spans="2:2">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="17" t="s">
+    <row r="22" s="8" customFormat="1" spans="2:2">
+      <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" s="8" customFormat="1" spans="1:2">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" s="8" customFormat="1" spans="1:2">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="B25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="8" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2164,72 +2155,72 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="17" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" s="8" customFormat="1" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="19" t="s">
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="B33" s="12"/>
     </row>
     <row r="34" s="8" customFormat="1" spans="1:2">
       <c r="A34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="1" spans="1:2">
       <c r="A35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="1" spans="1:2">
       <c r="A36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="8" t="s">
+    </row>
+    <row r="37" s="8" customFormat="1" spans="1:2">
+      <c r="A37" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="37" s="8" customFormat="1" spans="1:1">
-      <c r="A37" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" s="8" customFormat="1" spans="1:2">
+    <row r="38" s="8" customFormat="1" spans="1:1">
       <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="39" s="8" customFormat="1" spans="1:2">
       <c r="A39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="8" t="s">
+    </row>
+    <row r="40" s="8" customFormat="1" spans="1:2">
+      <c r="A40" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" s="8" customFormat="1" spans="2:2">
       <c r="B40" s="8" t="s">
         <v>48</v>
       </c>
@@ -2244,24 +2235,31 @@
         <v>50</v>
       </c>
     </row>
+    <row r="43" s="8" customFormat="1" spans="2:2">
+      <c r="B43" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A31:B31"/>
+  <mergeCells count="12">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" display="https://www.oracle.com/java/technologies/javase-downloads.html&#10;选exe" tooltip="https://www.oracle.com/java/technologies/javase-downloads.html"/>
-    <hyperlink ref="B33" r:id="rId2" display="http://www.sublimetext.com/3" tooltip="http://www.sublimetext.com/3"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://www.jetbrains.com&#10;选Developer Tools 》选IntelliJ IDEA" tooltip="https://www.jetbrains.com"/>
-    <hyperlink ref="B27" r:id="rId4" display="https://downloads.mysql.com/archives/c-j/"/>
+    <hyperlink ref="B13" r:id="rId1" display="https://www.oracle.com/java/technologies/javase-downloads.html&#10;选exe" tooltip="https://www.oracle.com/java/technologies/javase-downloads.html"/>
+    <hyperlink ref="B34" r:id="rId2" display="http://www.sublimetext.com/3" tooltip="http://www.sublimetext.com/3"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.jetbrains.com&#10;选Developer Tools 》选IntelliJ IDEA" tooltip="https://www.jetbrains.com"/>
+    <hyperlink ref="B28" r:id="rId4" display="https://downloads.mysql.com/archives/c-j/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2278,213 +2276,213 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" style="8" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="30.775" style="8" customWidth="1"/>
+    <col min="2" max="2" width="80.775" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="8"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" s="8" customFormat="1" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="12"/>
     </row>
-    <row r="16" s="8" customFormat="1" ht="28.8" spans="1:2">
+    <row r="16" s="8" customFormat="1" ht="27" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="1" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" s="8" customFormat="1" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2504,116 +2502,116 @@
   <sheetPr/>
   <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="60.7777777777778" style="8" customWidth="1"/>
-    <col min="2" max="2" width="120.777777777778" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.88888888888889" style="8"/>
+    <col min="1" max="1" width="60.775" style="8" customWidth="1"/>
+    <col min="2" max="2" width="120.775" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="8"/>
   </cols>
   <sheetData>
     <row r="2" s="8" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" ht="100.8" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" ht="94.5" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2635,18 +2633,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.775" customWidth="1"/>
+    <col min="2" max="2" width="80.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2654,18 +2652,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2688,34 +2686,34 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="30.775" customWidth="1"/>
+    <col min="2" max="2" width="60.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2733,12 +2731,12 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="3" width="20.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="45.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="20.7777777777778" customWidth="1"/>
-    <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="3" width="20.775" customWidth="1"/>
+    <col min="4" max="4" width="45.775" customWidth="1"/>
+    <col min="5" max="5" width="20.775" customWidth="1"/>
+    <col min="6" max="6" width="30.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="80" customHeight="1" spans="1:6">
@@ -2746,91 +2744,91 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:6">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" ht="15.6" spans="1:6">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" ht="15.6" spans="1:6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" spans="1:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2838,51 +2836,51 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" spans="1:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2890,27 +2888,27 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" ht="43.2" spans="1:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/java/java.xlsx
+++ b/java/java.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="175">
   <si>
     <t>代码编辑器：java的开发工具（集成开发环境）</t>
   </si>
@@ -31,6 +31,65 @@
   </si>
   <si>
     <t>idea官网与下载</t>
+  </si>
+  <si>
+    <t>https://www.jetbrains.com
+选Developer Tools 》选IntelliJ IDEA》下载》选社区版</t>
+  </si>
+  <si>
+    <t>idea账号</t>
+  </si>
+  <si>
+    <t>github账号</t>
+  </si>
+  <si>
+    <t>first name: Lu</t>
+  </si>
+  <si>
+    <t>last name: Rafael</t>
+  </si>
+  <si>
+    <t>密码：SUNsun2468</t>
+  </si>
+  <si>
+    <t>激活免费版</t>
+  </si>
+  <si>
+    <t>方式1：无限重置30天试用期教程:
+https://www.exception.site/essay/idea-reset-eval
+方式2：激活到2099年教程:
+https://www.exception.site/essay/how-to-free-use-intellij-idea-2019-3</t>
+  </si>
+  <si>
+    <t>JDK</t>
+  </si>
+  <si>
+    <t>JDK：java的开发工具包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>含有jvm虚拟机，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同操作系统运行(Window,Linux,Mac)</t>
+    </r>
+  </si>
+  <si>
+    <t>JDK下载</t>
   </si>
   <si>
     <r>
@@ -42,72 +101,6 @@
         <charset val="0"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">https://www.jetbrains.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>选</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Developer Tools 》选IntelliJ IDEA</t>
-    </r>
-  </si>
-  <si>
-    <t>idea账号</t>
-  </si>
-  <si>
-    <t>github账号</t>
-  </si>
-  <si>
-    <t>first name: Lu</t>
-  </si>
-  <si>
-    <t>last name: Rafael</t>
-  </si>
-  <si>
-    <t>密码：SUNsun2468</t>
-  </si>
-  <si>
-    <t>JDK</t>
-  </si>
-  <si>
-    <t>JDK：java的开发工具包</t>
-  </si>
-  <si>
-    <r>
-      <t>含有jvm虚拟机，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不同操作系统运行(Window,Linux,Mac)</t>
-    </r>
-  </si>
-  <si>
-    <t>JDK下载</t>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">https://www.oracle.com/java/technologies/javase-downloads.html
 </t>
     </r>
@@ -921,7 +914,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,14 +938,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -1121,6 +1113,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1466,7 +1465,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1578,7 +1577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1624,6 +1623,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1633,7 +1635,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,7 +1989,7 @@
   <dimension ref="A3:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2012,10 +2014,10 @@
       <c r="B4" s="14"/>
     </row>
     <row r="5" s="8" customFormat="1" ht="27" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2033,7 +2035,7 @@
       </c>
     </row>
     <row r="8" s="8" customFormat="1" spans="2:2">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2042,202 +2044,206 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" spans="1:2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
+    <row r="10" s="8" customFormat="1" ht="67.5" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:2">
       <c r="A11" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="14"/>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" s="8" customFormat="1" ht="27" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:2">
       <c r="A15" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" s="8" customFormat="1" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="1" spans="2:2">
       <c r="B17" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="2:2">
       <c r="B19" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" s="8" customFormat="1" spans="2:2">
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24" s="14"/>
     </row>
     <row r="25" s="8" customFormat="1" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="14"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="12"/>
     </row>
     <row r="34" s="8" customFormat="1" spans="1:2">
       <c r="A34" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="35" s="8" customFormat="1" spans="1:2">
       <c r="A35" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" s="8" customFormat="1" spans="1:2">
       <c r="A36" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" s="8" customFormat="1" spans="1:2">
       <c r="A37" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" s="8" customFormat="1" spans="1:1">
       <c r="A38" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" s="8" customFormat="1" spans="1:2">
       <c r="A39" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" s="8" customFormat="1" spans="1:2">
       <c r="A40" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" s="8" customFormat="1" spans="2:2">
       <c r="B41" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" s="8" customFormat="1" spans="2:2">
       <c r="B42" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" s="8" customFormat="1" spans="2:2">
       <c r="B43" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2258,7 +2264,7 @@
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" display="https://www.oracle.com/java/technologies/javase-downloads.html&#10;选exe" tooltip="https://www.oracle.com/java/technologies/javase-downloads.html"/>
     <hyperlink ref="B34" r:id="rId2" display="http://www.sublimetext.com/3" tooltip="http://www.sublimetext.com/3"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://www.jetbrains.com&#10;选Developer Tools 》选IntelliJ IDEA" tooltip="https://www.jetbrains.com"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.jetbrains.com&#10;选Developer Tools 》选IntelliJ IDEA》下载》选社区版" tooltip="https://www.jetbrains.com"/>
     <hyperlink ref="B28" r:id="rId4" display="https://downloads.mysql.com/archives/c-j/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2285,204 +2291,204 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" s="8" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" s="8" customFormat="1" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A10" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="12"/>
     </row>
     <row r="11" s="8" customFormat="1" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" s="8" customFormat="1" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" s="8" customFormat="1" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" s="12"/>
     </row>
     <row r="16" s="8" customFormat="1" ht="27" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" s="8" customFormat="1" spans="1:2">
       <c r="A17" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" s="8" customFormat="1" spans="1:2">
       <c r="A18" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" s="8" customFormat="1" spans="1:2">
       <c r="A19" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" s="8" customFormat="1" spans="1:2">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" s="8" customFormat="1" spans="1:2">
       <c r="A21" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" s="8" customFormat="1" spans="1:2">
       <c r="A22" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" s="8" customFormat="1" spans="1:2">
       <c r="A23" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" s="8" customFormat="1" spans="1:2">
       <c r="A24" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" s="8" customFormat="1" spans="1:2">
       <c r="A25" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2515,103 +2521,103 @@
   <sheetData>
     <row r="2" s="8" customFormat="1" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="1" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="1" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" ht="94.5" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2641,10 +2647,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -2652,18 +2658,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2694,26 +2700,26 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2744,33 +2750,33 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:6">
@@ -2778,13 +2784,13 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:6">
@@ -2792,13 +2798,13 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:6">
@@ -2806,29 +2812,29 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2836,51 +2842,51 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2888,27 +2894,27 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:4">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
